--- a/Diagrama de gantt.xlsx
+++ b/Diagrama de gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155C0F16-C480-401D-87B1-DE07A15ADA52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA437266-6FD2-4475-8BAE-953FA60F13DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
   <si>
     <t>Cree una programación para un proyecto en esta hoja de cálculo.
 Escriba el título de este proyecto en la celda B1. 
@@ -111,31 +111,10 @@
     <t>TAREA</t>
   </si>
   <si>
-    <t>Título de la fase 1</t>
-  </si>
-  <si>
-    <t>Tarea 1</t>
-  </si>
-  <si>
-    <t>Tarea 2</t>
-  </si>
-  <si>
-    <t>Tarea 3</t>
-  </si>
-  <si>
     <t>Tarea 4</t>
   </si>
   <si>
     <t>Tarea 5</t>
-  </si>
-  <si>
-    <t>Título de la fase 2</t>
-  </si>
-  <si>
-    <t>Título de la fase 3</t>
-  </si>
-  <si>
-    <t>Título de la fase 4</t>
   </si>
   <si>
     <t>Inserte nuevas filas ENCIMA de ésta</t>
@@ -289,6 +268,18 @@
   </si>
   <si>
     <t>Angel y Paco</t>
+  </si>
+  <si>
+    <t>Marco y Paco</t>
+  </si>
+  <si>
+    <t>Digram de Gantt</t>
+  </si>
+  <si>
+    <t>Diagrama de Arquitectura de Microservicios</t>
+  </si>
+  <si>
+    <t>Diagramas de Colaboración</t>
   </si>
 </sst>
 </file>
@@ -1355,6 +1346,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1364,17 +1358,14 @@
     <xf numFmtId="170" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="45" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1985,9 +1976,9 @@
   </sheetPr>
   <dimension ref="A1:DI36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2044,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -2058,7 +2049,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I2" s="68"/>
     </row>
@@ -2067,179 +2058,179 @@
         <v>2</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C3" s="93" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D3" s="94"/>
-      <c r="E3" s="92">
+      <c r="E3" s="95">
         <f>DATE(2022,1,17)</f>
         <v>44578</v>
       </c>
-      <c r="F3" s="92"/>
+      <c r="F3" s="95"/>
     </row>
     <row r="4" spans="1:113" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="93" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D4" s="94"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="89">
+      <c r="I4" s="90">
         <f>I5</f>
         <v>44578</v>
       </c>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="91"/>
-      <c r="P4" s="89">
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="90">
         <f>P5</f>
         <v>44585</v>
       </c>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="91"/>
-      <c r="W4" s="89">
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="90">
         <f>W5</f>
         <v>44592</v>
       </c>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="91"/>
-      <c r="AD4" s="89">
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="90">
         <f>AD5</f>
         <v>44599</v>
       </c>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="91"/>
-      <c r="AK4" s="89">
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
+      <c r="AG4" s="91"/>
+      <c r="AH4" s="91"/>
+      <c r="AI4" s="91"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="90">
         <f>AK5</f>
         <v>44606</v>
       </c>
-      <c r="AL4" s="90"/>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="90"/>
-      <c r="AO4" s="90"/>
-      <c r="AP4" s="90"/>
-      <c r="AQ4" s="91"/>
-      <c r="AR4" s="89">
+      <c r="AL4" s="91"/>
+      <c r="AM4" s="91"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="91"/>
+      <c r="AP4" s="91"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="90">
         <f>AR5</f>
         <v>44613</v>
       </c>
-      <c r="AS4" s="90"/>
-      <c r="AT4" s="90"/>
-      <c r="AU4" s="90"/>
-      <c r="AV4" s="90"/>
-      <c r="AW4" s="90"/>
-      <c r="AX4" s="91"/>
-      <c r="AY4" s="89">
+      <c r="AS4" s="91"/>
+      <c r="AT4" s="91"/>
+      <c r="AU4" s="91"/>
+      <c r="AV4" s="91"/>
+      <c r="AW4" s="91"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="90">
         <f>AY5</f>
         <v>44620</v>
       </c>
-      <c r="AZ4" s="90"/>
-      <c r="BA4" s="90"/>
-      <c r="BB4" s="90"/>
-      <c r="BC4" s="90"/>
-      <c r="BD4" s="90"/>
-      <c r="BE4" s="91"/>
-      <c r="BF4" s="89">
+      <c r="AZ4" s="91"/>
+      <c r="BA4" s="91"/>
+      <c r="BB4" s="91"/>
+      <c r="BC4" s="91"/>
+      <c r="BD4" s="91"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="90">
         <f>BF5</f>
         <v>44627</v>
       </c>
-      <c r="BG4" s="90"/>
-      <c r="BH4" s="90"/>
-      <c r="BI4" s="90"/>
-      <c r="BJ4" s="90"/>
-      <c r="BK4" s="90"/>
-      <c r="BL4" s="91"/>
-      <c r="BM4" s="89">
+      <c r="BG4" s="91"/>
+      <c r="BH4" s="91"/>
+      <c r="BI4" s="91"/>
+      <c r="BJ4" s="91"/>
+      <c r="BK4" s="91"/>
+      <c r="BL4" s="92"/>
+      <c r="BM4" s="90">
         <f>BM5</f>
         <v>44634</v>
       </c>
-      <c r="BN4" s="90"/>
-      <c r="BO4" s="90"/>
-      <c r="BP4" s="90"/>
-      <c r="BQ4" s="90"/>
-      <c r="BR4" s="90"/>
-      <c r="BS4" s="91"/>
-      <c r="BT4" s="89">
+      <c r="BN4" s="91"/>
+      <c r="BO4" s="91"/>
+      <c r="BP4" s="91"/>
+      <c r="BQ4" s="91"/>
+      <c r="BR4" s="91"/>
+      <c r="BS4" s="92"/>
+      <c r="BT4" s="90">
         <f t="shared" ref="BT4" si="0">BT5</f>
         <v>44641</v>
       </c>
-      <c r="BU4" s="90"/>
-      <c r="BV4" s="90"/>
-      <c r="BW4" s="90"/>
-      <c r="BX4" s="90"/>
-      <c r="BY4" s="90"/>
-      <c r="BZ4" s="91"/>
-      <c r="CA4" s="89">
+      <c r="BU4" s="91"/>
+      <c r="BV4" s="91"/>
+      <c r="BW4" s="91"/>
+      <c r="BX4" s="91"/>
+      <c r="BY4" s="91"/>
+      <c r="BZ4" s="92"/>
+      <c r="CA4" s="90">
         <f t="shared" ref="CA4" si="1">CA5</f>
         <v>44648</v>
       </c>
-      <c r="CB4" s="90"/>
-      <c r="CC4" s="90"/>
-      <c r="CD4" s="90"/>
-      <c r="CE4" s="90"/>
-      <c r="CF4" s="90"/>
-      <c r="CG4" s="91"/>
-      <c r="CH4" s="89">
+      <c r="CB4" s="91"/>
+      <c r="CC4" s="91"/>
+      <c r="CD4" s="91"/>
+      <c r="CE4" s="91"/>
+      <c r="CF4" s="91"/>
+      <c r="CG4" s="92"/>
+      <c r="CH4" s="90">
         <f t="shared" ref="CH4" si="2">CH5</f>
         <v>44655</v>
       </c>
-      <c r="CI4" s="90"/>
-      <c r="CJ4" s="90"/>
-      <c r="CK4" s="90"/>
-      <c r="CL4" s="90"/>
-      <c r="CM4" s="90"/>
-      <c r="CN4" s="91"/>
-      <c r="CO4" s="89">
+      <c r="CI4" s="91"/>
+      <c r="CJ4" s="91"/>
+      <c r="CK4" s="91"/>
+      <c r="CL4" s="91"/>
+      <c r="CM4" s="91"/>
+      <c r="CN4" s="92"/>
+      <c r="CO4" s="90">
         <f t="shared" ref="CO4" si="3">CO5</f>
         <v>44662</v>
       </c>
-      <c r="CP4" s="90"/>
-      <c r="CQ4" s="90"/>
-      <c r="CR4" s="90"/>
-      <c r="CS4" s="90"/>
-      <c r="CT4" s="90"/>
-      <c r="CU4" s="91"/>
-      <c r="CV4" s="89">
+      <c r="CP4" s="91"/>
+      <c r="CQ4" s="91"/>
+      <c r="CR4" s="91"/>
+      <c r="CS4" s="91"/>
+      <c r="CT4" s="91"/>
+      <c r="CU4" s="92"/>
+      <c r="CV4" s="90">
         <f t="shared" ref="CV4" si="4">CV5</f>
         <v>44669</v>
       </c>
-      <c r="CW4" s="90"/>
-      <c r="CX4" s="90"/>
-      <c r="CY4" s="90"/>
-      <c r="CZ4" s="90"/>
-      <c r="DA4" s="90"/>
-      <c r="DB4" s="91"/>
-      <c r="DC4" s="89">
+      <c r="CW4" s="91"/>
+      <c r="CX4" s="91"/>
+      <c r="CY4" s="91"/>
+      <c r="CZ4" s="91"/>
+      <c r="DA4" s="91"/>
+      <c r="DB4" s="92"/>
+      <c r="DC4" s="90">
         <f t="shared" ref="DC4" si="5">DC5</f>
         <v>44676</v>
       </c>
-      <c r="DD4" s="90"/>
-      <c r="DE4" s="90"/>
-      <c r="DF4" s="90"/>
-      <c r="DG4" s="90"/>
-      <c r="DH4" s="90"/>
-      <c r="DI4" s="91"/>
+      <c r="DD4" s="91"/>
+      <c r="DE4" s="91"/>
+      <c r="DF4" s="91"/>
+      <c r="DG4" s="91"/>
+      <c r="DH4" s="91"/>
+      <c r="DI4" s="92"/>
     </row>
     <row r="5" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
@@ -2584,7 +2575,7 @@
         <v>44660</v>
       </c>
       <c r="CN5" s="74">
-        <f t="shared" ref="CN5:CO5" si="28">CM5+1</f>
+        <f t="shared" ref="CN5" si="28">CM5+1</f>
         <v>44661</v>
       </c>
       <c r="CO5" s="72">
@@ -2680,20 +2671,20 @@
         <v>14</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I6" s="10" t="str">
         <f t="shared" ref="I6" si="50">LEFT(TEXT(I5,"ddd"),1)</f>
@@ -3088,7 +3079,7 @@
         <v>d</v>
       </c>
       <c r="DC6" s="10" t="str">
-        <f t="shared" ref="DC6:DI12" si="56">LEFT(TEXT(DC5,"ddd"),1)</f>
+        <f t="shared" ref="DC6:DI7" si="56">LEFT(TEXT(DC5,"ddd"),1)</f>
         <v>l</v>
       </c>
       <c r="DD6" s="10" t="str">
@@ -3210,7 +3201,7 @@
       <c r="CL7" s="31"/>
       <c r="CM7" s="31"/>
       <c r="CN7" s="10" t="str">
-        <f t="shared" ref="CN7:CO7" si="57">LEFT(TEXT(CN6,"ddd"),1)</f>
+        <f t="shared" ref="CN7" si="57">LEFT(TEXT(CN6,"ddd"),1)</f>
         <v>d</v>
       </c>
       <c r="CO7" s="31"/>
@@ -3230,7 +3221,7 @@
       <c r="CZ7" s="31"/>
       <c r="DA7" s="31"/>
       <c r="DB7" s="10" t="str">
-        <f t="shared" ref="DB7:DC7" si="59">LEFT(TEXT(DB6,"ddd"),1)</f>
+        <f t="shared" ref="DB7" si="59">LEFT(TEXT(DB6,"ddd"),1)</f>
         <v>d</v>
       </c>
       <c r="DC7" s="31"/>
@@ -3248,9 +3239,7 @@
       <c r="A8" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="B8" s="15"/>
       <c r="C8" s="52"/>
       <c r="D8" s="16"/>
       <c r="E8" s="75"/>
@@ -3343,38 +3332,38 @@
       <c r="CK8" s="31"/>
       <c r="CL8" s="31"/>
       <c r="CM8" s="31"/>
-      <c r="CN8" s="95"/>
+      <c r="CN8" s="89"/>
       <c r="CO8" s="31"/>
       <c r="CP8" s="31"/>
       <c r="CQ8" s="31"/>
       <c r="CR8" s="31"/>
       <c r="CS8" s="31"/>
       <c r="CT8" s="31"/>
-      <c r="CU8" s="95"/>
+      <c r="CU8" s="89"/>
       <c r="CV8" s="31"/>
       <c r="CW8" s="31"/>
       <c r="CX8" s="31"/>
       <c r="CY8" s="31"/>
       <c r="CZ8" s="31"/>
       <c r="DA8" s="31"/>
-      <c r="DB8" s="95"/>
+      <c r="DB8" s="89"/>
       <c r="DC8" s="31"/>
       <c r="DD8" s="31"/>
       <c r="DE8" s="31"/>
       <c r="DF8" s="31"/>
       <c r="DG8" s="31"/>
       <c r="DH8" s="31"/>
-      <c r="DI8" s="95"/>
+      <c r="DI8" s="89"/>
     </row>
     <row r="9" spans="1:113" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="46" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="88" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D9" s="17">
         <v>1</v>
@@ -3475,38 +3464,38 @@
       <c r="CK9" s="31"/>
       <c r="CL9" s="31"/>
       <c r="CM9" s="31"/>
-      <c r="CN9" s="95"/>
+      <c r="CN9" s="89"/>
       <c r="CO9" s="31"/>
       <c r="CP9" s="31"/>
       <c r="CQ9" s="31"/>
       <c r="CR9" s="31"/>
       <c r="CS9" s="31"/>
       <c r="CT9" s="31"/>
-      <c r="CU9" s="95"/>
+      <c r="CU9" s="89"/>
       <c r="CV9" s="31"/>
       <c r="CW9" s="31"/>
       <c r="CX9" s="31"/>
       <c r="CY9" s="31"/>
       <c r="CZ9" s="31"/>
       <c r="DA9" s="31"/>
-      <c r="DB9" s="95"/>
+      <c r="DB9" s="89"/>
       <c r="DC9" s="31"/>
       <c r="DD9" s="31"/>
       <c r="DE9" s="31"/>
       <c r="DF9" s="31"/>
       <c r="DG9" s="31"/>
       <c r="DH9" s="31"/>
-      <c r="DI9" s="95"/>
+      <c r="DI9" s="89"/>
     </row>
     <row r="10" spans="1:113" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="46" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D10" s="17">
         <v>1</v>
@@ -3607,36 +3596,36 @@
       <c r="CK10" s="31"/>
       <c r="CL10" s="31"/>
       <c r="CM10" s="31"/>
-      <c r="CN10" s="95"/>
+      <c r="CN10" s="89"/>
       <c r="CO10" s="31"/>
       <c r="CP10" s="31"/>
       <c r="CQ10" s="31"/>
       <c r="CR10" s="31"/>
       <c r="CS10" s="31"/>
       <c r="CT10" s="31"/>
-      <c r="CU10" s="95"/>
+      <c r="CU10" s="89"/>
       <c r="CV10" s="31"/>
       <c r="CW10" s="31"/>
       <c r="CX10" s="31"/>
       <c r="CY10" s="31"/>
       <c r="CZ10" s="31"/>
       <c r="DA10" s="31"/>
-      <c r="DB10" s="95"/>
+      <c r="DB10" s="89"/>
       <c r="DC10" s="31"/>
       <c r="DD10" s="31"/>
       <c r="DE10" s="31"/>
       <c r="DF10" s="31"/>
       <c r="DG10" s="31"/>
       <c r="DH10" s="31"/>
-      <c r="DI10" s="95"/>
+      <c r="DI10" s="89"/>
     </row>
     <row r="11" spans="1:113" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="45"/>
       <c r="B11" s="61" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D11" s="17">
         <v>1</v>
@@ -3737,36 +3726,36 @@
       <c r="CK11" s="31"/>
       <c r="CL11" s="31"/>
       <c r="CM11" s="31"/>
-      <c r="CN11" s="95"/>
+      <c r="CN11" s="89"/>
       <c r="CO11" s="31"/>
       <c r="CP11" s="31"/>
       <c r="CQ11" s="31"/>
       <c r="CR11" s="31"/>
       <c r="CS11" s="31"/>
       <c r="CT11" s="31"/>
-      <c r="CU11" s="95"/>
+      <c r="CU11" s="89"/>
       <c r="CV11" s="31"/>
       <c r="CW11" s="31"/>
       <c r="CX11" s="31"/>
       <c r="CY11" s="31"/>
       <c r="CZ11" s="31"/>
       <c r="DA11" s="31"/>
-      <c r="DB11" s="95"/>
+      <c r="DB11" s="89"/>
       <c r="DC11" s="31"/>
       <c r="DD11" s="31"/>
       <c r="DE11" s="31"/>
       <c r="DF11" s="31"/>
       <c r="DG11" s="31"/>
       <c r="DH11" s="31"/>
-      <c r="DI11" s="95"/>
+      <c r="DI11" s="89"/>
     </row>
     <row r="12" spans="1:113" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="45"/>
       <c r="B12" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="53" t="s">
         <v>55</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>62</v>
       </c>
       <c r="D12" s="17">
         <v>1</v>
@@ -3867,36 +3856,36 @@
       <c r="CK12" s="31"/>
       <c r="CL12" s="31"/>
       <c r="CM12" s="31"/>
-      <c r="CN12" s="95"/>
+      <c r="CN12" s="89"/>
       <c r="CO12" s="31"/>
       <c r="CP12" s="31"/>
       <c r="CQ12" s="31"/>
       <c r="CR12" s="31"/>
       <c r="CS12" s="31"/>
       <c r="CT12" s="31"/>
-      <c r="CU12" s="95"/>
+      <c r="CU12" s="89"/>
       <c r="CV12" s="31"/>
       <c r="CW12" s="31"/>
       <c r="CX12" s="31"/>
       <c r="CY12" s="31"/>
       <c r="CZ12" s="31"/>
       <c r="DA12" s="31"/>
-      <c r="DB12" s="95"/>
+      <c r="DB12" s="89"/>
       <c r="DC12" s="31"/>
       <c r="DD12" s="31"/>
       <c r="DE12" s="31"/>
       <c r="DF12" s="31"/>
       <c r="DG12" s="31"/>
       <c r="DH12" s="31"/>
-      <c r="DI12" s="95"/>
+      <c r="DI12" s="89"/>
     </row>
     <row r="13" spans="1:113" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="45"/>
       <c r="B13" s="61" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D13" s="17">
         <v>1</v>
@@ -3997,36 +3986,34 @@
       <c r="CK13" s="31"/>
       <c r="CL13" s="31"/>
       <c r="CM13" s="31"/>
-      <c r="CN13" s="95"/>
+      <c r="CN13" s="89"/>
       <c r="CO13" s="31"/>
       <c r="CP13" s="31"/>
       <c r="CQ13" s="31"/>
       <c r="CR13" s="31"/>
       <c r="CS13" s="31"/>
       <c r="CT13" s="31"/>
-      <c r="CU13" s="95"/>
+      <c r="CU13" s="89"/>
       <c r="CV13" s="31"/>
       <c r="CW13" s="31"/>
       <c r="CX13" s="31"/>
       <c r="CY13" s="31"/>
       <c r="CZ13" s="31"/>
       <c r="DA13" s="31"/>
-      <c r="DB13" s="95"/>
+      <c r="DB13" s="89"/>
       <c r="DC13" s="31"/>
       <c r="DD13" s="31"/>
       <c r="DE13" s="31"/>
       <c r="DF13" s="31"/>
       <c r="DG13" s="31"/>
       <c r="DH13" s="31"/>
-      <c r="DI13" s="95"/>
+      <c r="DI13" s="89"/>
     </row>
     <row r="14" spans="1:113" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="B14" s="18"/>
       <c r="C14" s="54"/>
       <c r="D14" s="19"/>
       <c r="E14" s="78"/>
@@ -4119,36 +4106,36 @@
       <c r="CK14" s="31"/>
       <c r="CL14" s="31"/>
       <c r="CM14" s="31"/>
-      <c r="CN14" s="95"/>
+      <c r="CN14" s="89"/>
       <c r="CO14" s="31"/>
       <c r="CP14" s="31"/>
       <c r="CQ14" s="31"/>
       <c r="CR14" s="31"/>
       <c r="CS14" s="31"/>
       <c r="CT14" s="31"/>
-      <c r="CU14" s="95"/>
+      <c r="CU14" s="89"/>
       <c r="CV14" s="31"/>
       <c r="CW14" s="31"/>
       <c r="CX14" s="31"/>
       <c r="CY14" s="31"/>
       <c r="CZ14" s="31"/>
       <c r="DA14" s="31"/>
-      <c r="DB14" s="95"/>
+      <c r="DB14" s="89"/>
       <c r="DC14" s="31"/>
       <c r="DD14" s="31"/>
       <c r="DE14" s="31"/>
       <c r="DF14" s="31"/>
       <c r="DG14" s="31"/>
       <c r="DH14" s="31"/>
-      <c r="DI14" s="95"/>
+      <c r="DI14" s="89"/>
     </row>
     <row r="15" spans="1:113" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="46"/>
       <c r="B15" s="62" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D15" s="20">
         <v>1</v>
@@ -4249,36 +4236,36 @@
       <c r="CK15" s="31"/>
       <c r="CL15" s="31"/>
       <c r="CM15" s="31"/>
-      <c r="CN15" s="95"/>
+      <c r="CN15" s="89"/>
       <c r="CO15" s="31"/>
       <c r="CP15" s="31"/>
       <c r="CQ15" s="31"/>
       <c r="CR15" s="31"/>
       <c r="CS15" s="31"/>
       <c r="CT15" s="31"/>
-      <c r="CU15" s="95"/>
+      <c r="CU15" s="89"/>
       <c r="CV15" s="31"/>
       <c r="CW15" s="31"/>
       <c r="CX15" s="31"/>
       <c r="CY15" s="31"/>
       <c r="CZ15" s="31"/>
       <c r="DA15" s="31"/>
-      <c r="DB15" s="95"/>
+      <c r="DB15" s="89"/>
       <c r="DC15" s="31"/>
       <c r="DD15" s="31"/>
       <c r="DE15" s="31"/>
       <c r="DF15" s="31"/>
       <c r="DG15" s="31"/>
       <c r="DH15" s="31"/>
-      <c r="DI15" s="95"/>
+      <c r="DI15" s="89"/>
     </row>
     <row r="16" spans="1:113" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="45"/>
       <c r="B16" s="62" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D16" s="20">
         <v>1</v>
@@ -4379,36 +4366,36 @@
       <c r="CK16" s="31"/>
       <c r="CL16" s="31"/>
       <c r="CM16" s="31"/>
-      <c r="CN16" s="95"/>
+      <c r="CN16" s="89"/>
       <c r="CO16" s="31"/>
       <c r="CP16" s="31"/>
       <c r="CQ16" s="31"/>
       <c r="CR16" s="31"/>
       <c r="CS16" s="31"/>
       <c r="CT16" s="31"/>
-      <c r="CU16" s="95"/>
+      <c r="CU16" s="89"/>
       <c r="CV16" s="31"/>
       <c r="CW16" s="31"/>
       <c r="CX16" s="31"/>
       <c r="CY16" s="31"/>
       <c r="CZ16" s="31"/>
       <c r="DA16" s="31"/>
-      <c r="DB16" s="95"/>
+      <c r="DB16" s="89"/>
       <c r="DC16" s="31"/>
       <c r="DD16" s="31"/>
       <c r="DE16" s="31"/>
       <c r="DF16" s="31"/>
       <c r="DG16" s="31"/>
       <c r="DH16" s="31"/>
-      <c r="DI16" s="95"/>
+      <c r="DI16" s="89"/>
     </row>
     <row r="17" spans="1:113" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="45"/>
       <c r="B17" s="62" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D17" s="20">
         <v>1</v>
@@ -4509,36 +4496,36 @@
       <c r="CK17" s="31"/>
       <c r="CL17" s="31"/>
       <c r="CM17" s="31"/>
-      <c r="CN17" s="95"/>
+      <c r="CN17" s="89"/>
       <c r="CO17" s="31"/>
       <c r="CP17" s="31"/>
       <c r="CQ17" s="31"/>
       <c r="CR17" s="31"/>
       <c r="CS17" s="31"/>
       <c r="CT17" s="31"/>
-      <c r="CU17" s="95"/>
+      <c r="CU17" s="89"/>
       <c r="CV17" s="31"/>
       <c r="CW17" s="31"/>
       <c r="CX17" s="31"/>
       <c r="CY17" s="31"/>
       <c r="CZ17" s="31"/>
       <c r="DA17" s="31"/>
-      <c r="DB17" s="95"/>
+      <c r="DB17" s="89"/>
       <c r="DC17" s="31"/>
       <c r="DD17" s="31"/>
       <c r="DE17" s="31"/>
       <c r="DF17" s="31"/>
       <c r="DG17" s="31"/>
       <c r="DH17" s="31"/>
-      <c r="DI17" s="95"/>
+      <c r="DI17" s="89"/>
     </row>
     <row r="18" spans="1:113" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="45"/>
       <c r="B18" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="55" t="s">
         <v>65</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>72</v>
       </c>
       <c r="D18" s="20">
         <v>1</v>
@@ -4639,36 +4626,36 @@
       <c r="CK18" s="31"/>
       <c r="CL18" s="31"/>
       <c r="CM18" s="31"/>
-      <c r="CN18" s="95"/>
+      <c r="CN18" s="89"/>
       <c r="CO18" s="31"/>
       <c r="CP18" s="31"/>
       <c r="CQ18" s="31"/>
       <c r="CR18" s="31"/>
       <c r="CS18" s="31"/>
       <c r="CT18" s="31"/>
-      <c r="CU18" s="95"/>
+      <c r="CU18" s="89"/>
       <c r="CV18" s="31"/>
       <c r="CW18" s="31"/>
       <c r="CX18" s="31"/>
       <c r="CY18" s="31"/>
       <c r="CZ18" s="31"/>
       <c r="DA18" s="31"/>
-      <c r="DB18" s="95"/>
+      <c r="DB18" s="89"/>
       <c r="DC18" s="31"/>
       <c r="DD18" s="31"/>
       <c r="DE18" s="31"/>
       <c r="DF18" s="31"/>
       <c r="DG18" s="31"/>
       <c r="DH18" s="31"/>
-      <c r="DI18" s="95"/>
+      <c r="DI18" s="89"/>
     </row>
     <row r="19" spans="1:113" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="45"/>
       <c r="B19" s="62" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D19" s="20">
         <v>1</v>
@@ -4769,36 +4756,34 @@
       <c r="CK19" s="31"/>
       <c r="CL19" s="31"/>
       <c r="CM19" s="31"/>
-      <c r="CN19" s="95"/>
+      <c r="CN19" s="89"/>
       <c r="CO19" s="31"/>
       <c r="CP19" s="31"/>
       <c r="CQ19" s="31"/>
       <c r="CR19" s="31"/>
       <c r="CS19" s="31"/>
       <c r="CT19" s="31"/>
-      <c r="CU19" s="95"/>
+      <c r="CU19" s="89"/>
       <c r="CV19" s="31"/>
       <c r="CW19" s="31"/>
       <c r="CX19" s="31"/>
       <c r="CY19" s="31"/>
       <c r="CZ19" s="31"/>
       <c r="DA19" s="31"/>
-      <c r="DB19" s="95"/>
+      <c r="DB19" s="89"/>
       <c r="DC19" s="31"/>
       <c r="DD19" s="31"/>
       <c r="DE19" s="31"/>
       <c r="DF19" s="31"/>
       <c r="DG19" s="31"/>
       <c r="DH19" s="31"/>
-      <c r="DI19" s="95"/>
+      <c r="DI19" s="89"/>
     </row>
     <row r="20" spans="1:113" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>22</v>
-      </c>
+      <c r="B20" s="21"/>
       <c r="C20" s="56"/>
       <c r="D20" s="22"/>
       <c r="E20" s="81"/>
@@ -4891,36 +4876,36 @@
       <c r="CK20" s="31"/>
       <c r="CL20" s="31"/>
       <c r="CM20" s="31"/>
-      <c r="CN20" s="95"/>
+      <c r="CN20" s="89"/>
       <c r="CO20" s="31"/>
       <c r="CP20" s="31"/>
       <c r="CQ20" s="31"/>
       <c r="CR20" s="31"/>
       <c r="CS20" s="31"/>
       <c r="CT20" s="31"/>
-      <c r="CU20" s="95"/>
+      <c r="CU20" s="89"/>
       <c r="CV20" s="31"/>
       <c r="CW20" s="31"/>
       <c r="CX20" s="31"/>
       <c r="CY20" s="31"/>
       <c r="CZ20" s="31"/>
       <c r="DA20" s="31"/>
-      <c r="DB20" s="95"/>
+      <c r="DB20" s="89"/>
       <c r="DC20" s="31"/>
       <c r="DD20" s="31"/>
       <c r="DE20" s="31"/>
       <c r="DF20" s="31"/>
       <c r="DG20" s="31"/>
       <c r="DH20" s="31"/>
-      <c r="DI20" s="95"/>
+      <c r="DI20" s="89"/>
     </row>
     <row r="21" spans="1:113" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="45"/>
       <c r="B21" s="63" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C21" s="57" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D21" s="23">
         <v>1</v>
@@ -5021,36 +5006,36 @@
       <c r="CK21" s="31"/>
       <c r="CL21" s="31"/>
       <c r="CM21" s="31"/>
-      <c r="CN21" s="95"/>
+      <c r="CN21" s="89"/>
       <c r="CO21" s="31"/>
       <c r="CP21" s="31"/>
       <c r="CQ21" s="31"/>
       <c r="CR21" s="31"/>
       <c r="CS21" s="31"/>
       <c r="CT21" s="31"/>
-      <c r="CU21" s="95"/>
+      <c r="CU21" s="89"/>
       <c r="CV21" s="31"/>
       <c r="CW21" s="31"/>
       <c r="CX21" s="31"/>
       <c r="CY21" s="31"/>
       <c r="CZ21" s="31"/>
       <c r="DA21" s="31"/>
-      <c r="DB21" s="95"/>
+      <c r="DB21" s="89"/>
       <c r="DC21" s="31"/>
       <c r="DD21" s="31"/>
       <c r="DE21" s="31"/>
       <c r="DF21" s="31"/>
       <c r="DG21" s="31"/>
       <c r="DH21" s="31"/>
-      <c r="DI21" s="95"/>
+      <c r="DI21" s="89"/>
     </row>
     <row r="22" spans="1:113" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="45"/>
       <c r="B22" s="63" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C22" s="57" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D22" s="23">
         <v>1</v>
@@ -5151,36 +5136,36 @@
       <c r="CK22" s="31"/>
       <c r="CL22" s="31"/>
       <c r="CM22" s="31"/>
-      <c r="CN22" s="95"/>
+      <c r="CN22" s="89"/>
       <c r="CO22" s="31"/>
       <c r="CP22" s="31"/>
       <c r="CQ22" s="31"/>
       <c r="CR22" s="31"/>
       <c r="CS22" s="31"/>
       <c r="CT22" s="31"/>
-      <c r="CU22" s="95"/>
+      <c r="CU22" s="89"/>
       <c r="CV22" s="31"/>
       <c r="CW22" s="31"/>
       <c r="CX22" s="31"/>
       <c r="CY22" s="31"/>
       <c r="CZ22" s="31"/>
       <c r="DA22" s="31"/>
-      <c r="DB22" s="95"/>
+      <c r="DB22" s="89"/>
       <c r="DC22" s="31"/>
       <c r="DD22" s="31"/>
       <c r="DE22" s="31"/>
       <c r="DF22" s="31"/>
       <c r="DG22" s="31"/>
       <c r="DH22" s="31"/>
-      <c r="DI22" s="95"/>
+      <c r="DI22" s="89"/>
     </row>
     <row r="23" spans="1:113" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="45"/>
       <c r="B23" s="63" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D23" s="23">
         <v>1</v>
@@ -5307,11 +5292,13 @@
     <row r="24" spans="1:113" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="45"/>
       <c r="B24" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="57"/>
+        <v>62</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>66</v>
+      </c>
       <c r="D24" s="23">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="83">
         <f>E23+3</f>
@@ -5435,13 +5422,13 @@
     <row r="25" spans="1:113" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="45"/>
       <c r="B25" s="63" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C25" s="57" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D25" s="23">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E25" s="83">
         <f>E23</f>
@@ -5566,9 +5553,7 @@
       <c r="A26" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="24" t="s">
-        <v>23</v>
-      </c>
+      <c r="B26" s="24"/>
       <c r="C26" s="58"/>
       <c r="D26" s="25"/>
       <c r="E26" s="84"/>
@@ -5687,20 +5672,24 @@
     <row r="27" spans="1:113" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="45"/>
       <c r="B27" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="86" t="s">
-        <v>30</v>
+        <v>67</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="26">
+        <v>1</v>
+      </c>
+      <c r="E27" s="86">
+        <v>44657</v>
+      </c>
+      <c r="F27" s="86">
+        <v>44661</v>
       </c>
       <c r="G27" s="14"/>
-      <c r="H27" s="14" t="e">
+      <c r="H27" s="14">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
+        <v>5</v>
       </c>
       <c r="I27" s="31"/>
       <c r="J27" s="31"/>
@@ -5811,20 +5800,24 @@
     <row r="28" spans="1:113" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="45"/>
       <c r="B28" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="86" t="s">
-        <v>30</v>
+        <v>68</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="26">
+        <v>1</v>
+      </c>
+      <c r="E28" s="86">
+        <v>44657</v>
+      </c>
+      <c r="F28" s="86">
+        <v>44661</v>
       </c>
       <c r="G28" s="14"/>
-      <c r="H28" s="14" t="e">
+      <c r="H28" s="14">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
+        <v>5</v>
       </c>
       <c r="I28" s="31"/>
       <c r="J28" s="31"/>
@@ -5935,20 +5928,24 @@
     <row r="29" spans="1:113" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="45"/>
       <c r="B29" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="86" t="s">
-        <v>30</v>
+        <v>69</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="26">
+        <v>1</v>
+      </c>
+      <c r="E29" s="86">
+        <v>44657</v>
+      </c>
+      <c r="F29" s="86">
+        <v>44662</v>
       </c>
       <c r="G29" s="14"/>
-      <c r="H29" s="14" t="e">
+      <c r="H29" s="14">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
+        <v>6</v>
       </c>
       <c r="I29" s="31"/>
       <c r="J29" s="31"/>
@@ -6059,15 +6056,15 @@
     <row r="30" spans="1:113" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="45"/>
       <c r="B30" s="64" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C30" s="59"/>
       <c r="D30" s="26"/>
       <c r="E30" s="86" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F30" s="86" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14" t="e">
@@ -6183,15 +6180,15 @@
     <row r="31" spans="1:113" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="45"/>
       <c r="B31" s="64" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C31" s="59"/>
       <c r="D31" s="26"/>
       <c r="E31" s="86" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F31" s="86" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="14" t="e">
@@ -6429,7 +6426,7 @@
         <v>13</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C33" s="28"/>
       <c r="D33" s="29"/>
@@ -6558,6 +6555,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="CV4:DB4"/>
     <mergeCell ref="DC4:DI4"/>
     <mergeCell ref="BM4:BS4"/>
@@ -6565,17 +6573,6 @@
     <mergeCell ref="CA4:CG4"/>
     <mergeCell ref="CH4:CN4"/>
     <mergeCell ref="CO4:CU4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D33">
     <cfRule type="dataBar" priority="14">
@@ -6657,79 +6654,79 @@
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:2" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B2" s="36"/>
     </row>
     <row r="3" spans="1:2" s="41" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="69" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B3" s="42"/>
     </row>
     <row r="4" spans="1:2" s="38" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A4" s="39" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="35" customFormat="1" ht="216" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="38" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A8" s="39" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="35" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="43" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="38" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A11" s="39" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="35" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="43" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="38" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A14" s="39" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="40" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -6746,35 +6743,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7062,34 +7030,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7108,4 +7078,31 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>